--- a/src/test/java/MarketData_L1/Data/MarketData_L1.xlsx
+++ b/src/test/java/MarketData_L1/Data/MarketData_L1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajmal.syed.LOGICIELSERVICE\eclipse-workspace\OMS_API\src\test\java\MarketData_L1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_OMSAPI\src\test\java\MarketData_L1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B69070D-F4CE-47C9-8551-D5E39EA007BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E703C775-776B-481B-A3A2-881A521BE725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="482" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="482" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subscribe" sheetId="2" r:id="rId1"/>
@@ -374,11 +374,6 @@
   </si>
   <si>
     <t>{
-    "symbols": ["AAPL","MSFT","IBM","DO"]
-}</t>
-  </si>
-  <si>
-    <t>{
     "symbols": ["GOOGL", "QQQ"]
 }</t>
   </si>
@@ -392,9 +387,6 @@
   </si>
   <si>
     <t>true</t>
-  </si>
-  <si>
-    <t>[false,false,true,true]</t>
   </si>
   <si>
     <t>[symbol, cik, previousTradeLow, previousTradeHigh, nextDividend1, primaryExchange, nextDividend4, peRatio, nextDividend3, nextDividend2, annualDilutedEarningsPerShare, exDate, nextDividend3Date, countryCode, nextDividend2Status, currency, ttmSharesOutstanding, nextDividend2Date, address, nextDividend4Status, ttmReportDate, averageVolume30Day, nextDividend1Status, nextDividend1Date, nextDividend3Status, nextDividend4Date, name, primaryTicker, annualBasicEarningsPerShare]</t>
@@ -495,6 +487,14 @@
   </si>
   <si>
     <t>[symbol, dateTime, open, close, highIndicationPrice, lowIndicationPrice, volume]</t>
+  </si>
+  <si>
+    <t>{
+    "symbols": ["AA","MSFT","IBM","DO"]
+}</t>
+  </si>
+  <si>
+    <t>[true,false,true,true]</t>
   </si>
 </sst>
 </file>
@@ -1170,16 +1170,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E83D13-0522-442A-A3AF-A865C1C21765}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="54.42578125" customWidth="1"/>
     <col min="3" max="3" width="51.28515625" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
-    <col min="5" max="5" width="70" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="58.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="68.42578125" bestFit="1" customWidth="1"/>
@@ -1342,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA2B83D-3266-457A-8188-969DAFDC3AB2}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,16 +1399,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1425,16 +1425,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1451,16 +1451,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1513,13 +1513,13 @@
         <v>38</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>76</v>
@@ -1530,7 +1530,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1548,16 +1548,16 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1583,16 +1583,16 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
         <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1618,16 +1618,16 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1635,7 +1635,7 @@
         <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1653,16 +1653,16 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1670,7 +1670,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1688,24 +1688,24 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
         <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1720,27 +1720,27 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="H7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="J7" t="s">
         <v>66</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1755,19 +1755,19 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
         <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8BF021-71B6-49C0-8740-618224F75BBF}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1823,7 +1823,7 @@
         <v>76</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1831,7 +1831,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -1849,10 +1849,10 @@
         <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1878,10 +1878,10 @@
         <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1889,7 +1889,7 @@
         <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -1907,10 +1907,10 @@
         <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
@@ -1936,18 +1936,18 @@
         <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -1956,27 +1956,27 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" t="s">
         <v>125</v>
       </c>
-      <c r="H6" t="s">
-        <v>127</v>
-      </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
@@ -1985,27 +1985,27 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>125</v>
       </c>
-      <c r="H7" t="s">
-        <v>127</v>
-      </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
@@ -2014,27 +2014,27 @@
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" t="s">
         <v>125</v>
       </c>
-      <c r="H8" t="s">
-        <v>127</v>
-      </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
@@ -2043,19 +2043,19 @@
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" t="s">
         <v>125</v>
       </c>
-      <c r="H9" t="s">
-        <v>127</v>
-      </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
